--- a/Project493_S. J. Nesbitt(2010).xlsx
+++ b/Project493_S. J. Nesbitt(2010).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/remi/Desktop/Finished &amp; Uploaded copy 2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pjjg18\GitHub\neotrans\matrices\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12E8A4B1-F6D3-FC43-A516-FAFC853AE210}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62B1403E-CD4F-4761-943A-B116C5828B6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{7F9CE21B-FAEE-1647-98F1-212B143E4612}"/>
+    <workbookView xWindow="16455" yWindow="390" windowWidth="15945" windowHeight="18375" xr2:uid="{7F9CE21B-FAEE-1647-98F1-212B143E4612}"/>
   </bookViews>
   <sheets>
     <sheet name="Project493" sheetId="1" r:id="rId1"/>
@@ -1026,55 +1026,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>60476</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>30237</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>42334</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>90714</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7C9370CC-697D-3CAB-AA32-EB5D07DA67E7}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8345714" y="302380"/>
-          <a:ext cx="10595430" cy="6622144"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1396,17 +1347,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF8586BE-8687-5544-A72C-E3B0FA331F78}">
   <dimension ref="A1:C291"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
-      <selection sqref="A1:C1"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="75" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="83.33203125" customWidth="1"/>
-    <col min="2" max="3" width="21.6640625" customWidth="1"/>
+    <col min="1" max="1" width="83.375" customWidth="1"/>
+    <col min="2" max="3" width="21.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="22" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1417,7 +1366,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>292</v>
       </c>
@@ -1428,7 +1377,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -1439,7 +1388,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -1450,7 +1399,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -1461,7 +1410,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -1472,7 +1421,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -1483,7 +1432,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -1494,7 +1443,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -1505,7 +1454,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -1516,7 +1465,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -1524,7 +1473,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -1535,7 +1484,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -1546,7 +1495,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>14</v>
       </c>
@@ -1557,7 +1506,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>15</v>
       </c>
@@ -1568,7 +1517,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -1579,7 +1528,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>17</v>
       </c>
@@ -1590,7 +1539,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>18</v>
       </c>
@@ -1601,7 +1550,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>19</v>
       </c>
@@ -1612,7 +1561,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>20</v>
       </c>
@@ -1623,7 +1572,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>21</v>
       </c>
@@ -1634,7 +1583,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>22</v>
       </c>
@@ -1645,7 +1594,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>23</v>
       </c>
@@ -1656,7 +1605,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>24</v>
       </c>
@@ -1667,7 +1616,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>25</v>
       </c>
@@ -1678,7 +1627,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>26</v>
       </c>
@@ -1689,7 +1638,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>27</v>
       </c>
@@ -1700,7 +1649,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>28</v>
       </c>
@@ -1711,7 +1660,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>29</v>
       </c>
@@ -1722,7 +1671,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>30</v>
       </c>
@@ -1733,7 +1682,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>31</v>
       </c>
@@ -1744,7 +1693,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>32</v>
       </c>
@@ -1755,7 +1704,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>33</v>
       </c>
@@ -1766,7 +1715,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>34</v>
       </c>
@@ -1777,7 +1726,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>35</v>
       </c>
@@ -1788,7 +1737,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>36</v>
       </c>
@@ -1799,7 +1748,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>37</v>
       </c>
@@ -1810,7 +1759,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>38</v>
       </c>
@@ -1821,7 +1770,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>39</v>
       </c>
@@ -1832,7 +1781,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>40</v>
       </c>
@@ -1843,7 +1792,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>41</v>
       </c>
@@ -1854,7 +1803,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>42</v>
       </c>
@@ -1865,7 +1814,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>43</v>
       </c>
@@ -1876,7 +1825,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>44</v>
       </c>
@@ -1887,7 +1836,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>45</v>
       </c>
@@ -1898,7 +1847,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>46</v>
       </c>
@@ -1909,7 +1858,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>47</v>
       </c>
@@ -1920,7 +1869,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>48</v>
       </c>
@@ -1928,7 +1877,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>49</v>
       </c>
@@ -1939,7 +1888,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>50</v>
       </c>
@@ -1950,7 +1899,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>51</v>
       </c>
@@ -1961,7 +1910,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>52</v>
       </c>
@@ -1972,7 +1921,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>53</v>
       </c>
@@ -1983,7 +1932,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>54</v>
       </c>
@@ -1994,7 +1943,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>55</v>
       </c>
@@ -2005,7 +1954,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>56</v>
       </c>
@@ -2016,7 +1965,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>57</v>
       </c>
@@ -2027,7 +1976,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>58</v>
       </c>
@@ -2035,7 +1984,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>59</v>
       </c>
@@ -2046,7 +1995,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>60</v>
       </c>
@@ -2057,7 +2006,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>61</v>
       </c>
@@ -2068,7 +2017,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>62</v>
       </c>
@@ -2079,7 +2028,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>63</v>
       </c>
@@ -2090,7 +2039,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>64</v>
       </c>
@@ -2101,7 +2050,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>65</v>
       </c>
@@ -2112,7 +2061,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>66</v>
       </c>
@@ -2123,7 +2072,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>67</v>
       </c>
@@ -2134,7 +2083,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>68</v>
       </c>
@@ -2145,7 +2094,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>69</v>
       </c>
@@ -2156,7 +2105,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>70</v>
       </c>
@@ -2167,7 +2116,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>71</v>
       </c>
@@ -2178,7 +2127,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>72</v>
       </c>
@@ -2189,7 +2138,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>73</v>
       </c>
@@ -2200,7 +2149,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>74</v>
       </c>
@@ -2211,7 +2160,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>75</v>
       </c>
@@ -2222,7 +2171,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>76</v>
       </c>
@@ -2233,7 +2182,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>77</v>
       </c>
@@ -2244,7 +2193,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>78</v>
       </c>
@@ -2255,7 +2204,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>79</v>
       </c>
@@ -2266,7 +2215,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>80</v>
       </c>
@@ -2277,7 +2226,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>81</v>
       </c>
@@ -2288,7 +2237,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>82</v>
       </c>
@@ -2299,7 +2248,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>83</v>
       </c>
@@ -2310,7 +2259,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>84</v>
       </c>
@@ -2321,7 +2270,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>85</v>
       </c>
@@ -2332,7 +2281,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>86</v>
       </c>
@@ -2343,7 +2292,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>87</v>
       </c>
@@ -2354,7 +2303,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>88</v>
       </c>
@@ -2365,7 +2314,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>89</v>
       </c>
@@ -2376,7 +2325,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>90</v>
       </c>
@@ -2387,7 +2336,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>91</v>
       </c>
@@ -2398,7 +2347,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>92</v>
       </c>
@@ -2409,7 +2358,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>93</v>
       </c>
@@ -2420,7 +2369,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>94</v>
       </c>
@@ -2431,7 +2380,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>95</v>
       </c>
@@ -2442,7 +2391,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>96</v>
       </c>
@@ -2453,7 +2402,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>97</v>
       </c>
@@ -2461,7 +2410,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>98</v>
       </c>
@@ -2472,7 +2421,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>99</v>
       </c>
@@ -2480,7 +2429,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>100</v>
       </c>
@@ -2491,7 +2440,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>101</v>
       </c>
@@ -2502,7 +2451,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>102</v>
       </c>
@@ -2513,7 +2462,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>103</v>
       </c>
@@ -2524,7 +2473,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>104</v>
       </c>
@@ -2535,7 +2484,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>105</v>
       </c>
@@ -2546,7 +2495,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>106</v>
       </c>
@@ -2557,7 +2506,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>107</v>
       </c>
@@ -2568,7 +2517,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>108</v>
       </c>
@@ -2579,7 +2528,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>109</v>
       </c>
@@ -2590,7 +2539,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>110</v>
       </c>
@@ -2601,7 +2550,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>111</v>
       </c>
@@ -2612,7 +2561,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>112</v>
       </c>
@@ -2623,7 +2572,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>113</v>
       </c>
@@ -2634,7 +2583,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>114</v>
       </c>
@@ -2645,7 +2594,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>115</v>
       </c>
@@ -2656,7 +2605,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>116</v>
       </c>
@@ -2667,7 +2616,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>117</v>
       </c>
@@ -2675,7 +2624,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>118</v>
       </c>
@@ -2686,7 +2635,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>119</v>
       </c>
@@ -2697,7 +2646,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>120</v>
       </c>
@@ -2708,7 +2657,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>121</v>
       </c>
@@ -2719,7 +2668,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>122</v>
       </c>
@@ -2730,7 +2679,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>123</v>
       </c>
@@ -2738,7 +2687,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>124</v>
       </c>
@@ -2749,7 +2698,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>125</v>
       </c>
@@ -2760,7 +2709,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>126</v>
       </c>
@@ -2771,7 +2720,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>127</v>
       </c>
@@ -2782,7 +2731,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>128</v>
       </c>
@@ -2793,7 +2742,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>129</v>
       </c>
@@ -2804,7 +2753,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>130</v>
       </c>
@@ -2815,7 +2764,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>131</v>
       </c>
@@ -2826,7 +2775,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>132</v>
       </c>
@@ -2837,7 +2786,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>133</v>
       </c>
@@ -2848,7 +2797,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>134</v>
       </c>
@@ -2859,7 +2808,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>135</v>
       </c>
@@ -2870,7 +2819,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>136</v>
       </c>
@@ -2881,7 +2830,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>137</v>
       </c>
@@ -2889,7 +2838,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>138</v>
       </c>
@@ -2900,7 +2849,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>139</v>
       </c>
@@ -2911,7 +2860,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>140</v>
       </c>
@@ -2922,7 +2871,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>141</v>
       </c>
@@ -2933,7 +2882,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>142</v>
       </c>
@@ -2944,7 +2893,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>143</v>
       </c>
@@ -2955,7 +2904,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>144</v>
       </c>
@@ -2966,7 +2915,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>145</v>
       </c>
@@ -2977,7 +2926,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>146</v>
       </c>
@@ -2988,7 +2937,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>147</v>
       </c>
@@ -2999,7 +2948,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>148</v>
       </c>
@@ -3010,7 +2959,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>149</v>
       </c>
@@ -3021,7 +2970,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>150</v>
       </c>
@@ -3032,7 +2981,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>151</v>
       </c>
@@ -3043,7 +2992,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>152</v>
       </c>
@@ -3054,7 +3003,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>153</v>
       </c>
@@ -3065,7 +3014,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>154</v>
       </c>
@@ -3076,7 +3025,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>155</v>
       </c>
@@ -3087,7 +3036,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>156</v>
       </c>
@@ -3098,7 +3047,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>157</v>
       </c>
@@ -3109,7 +3058,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>158</v>
       </c>
@@ -3120,7 +3069,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>159</v>
       </c>
@@ -3131,7 +3080,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>160</v>
       </c>
@@ -3142,7 +3091,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>161</v>
       </c>
@@ -3153,7 +3102,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>162</v>
       </c>
@@ -3164,7 +3113,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>163</v>
       </c>
@@ -3175,7 +3124,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>164</v>
       </c>
@@ -3186,7 +3135,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>165</v>
       </c>
@@ -3197,7 +3146,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>166</v>
       </c>
@@ -3208,7 +3157,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>167</v>
       </c>
@@ -3219,7 +3168,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>168</v>
       </c>
@@ -3230,7 +3179,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>169</v>
       </c>
@@ -3241,7 +3190,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>170</v>
       </c>
@@ -3252,7 +3201,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>171</v>
       </c>
@@ -3263,7 +3212,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>172</v>
       </c>
@@ -3274,7 +3223,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>173</v>
       </c>
@@ -3285,7 +3234,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>174</v>
       </c>
@@ -3296,7 +3245,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>175</v>
       </c>
@@ -3304,7 +3253,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>176</v>
       </c>
@@ -3315,7 +3264,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>177</v>
       </c>
@@ -3326,7 +3275,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>178</v>
       </c>
@@ -3334,7 +3283,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>179</v>
       </c>
@@ -3345,7 +3294,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>180</v>
       </c>
@@ -3356,7 +3305,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>181</v>
       </c>
@@ -3367,7 +3316,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>182</v>
       </c>
@@ -3378,7 +3327,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>183</v>
       </c>
@@ -3389,7 +3338,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>184</v>
       </c>
@@ -3400,7 +3349,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>185</v>
       </c>
@@ -3411,7 +3360,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>186</v>
       </c>
@@ -3422,7 +3371,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>187</v>
       </c>
@@ -3433,7 +3382,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>188</v>
       </c>
@@ -3444,7 +3393,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>189</v>
       </c>
@@ -3455,7 +3404,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>190</v>
       </c>
@@ -3466,7 +3415,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>191</v>
       </c>
@@ -3477,7 +3426,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>192</v>
       </c>
@@ -3488,7 +3437,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>193</v>
       </c>
@@ -3496,7 +3445,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>194</v>
       </c>
@@ -3507,7 +3456,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>195</v>
       </c>
@@ -3518,7 +3467,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>196</v>
       </c>
@@ -3529,7 +3478,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>197</v>
       </c>
@@ -3540,7 +3489,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>198</v>
       </c>
@@ -3551,7 +3500,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>199</v>
       </c>
@@ -3562,7 +3511,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>200</v>
       </c>
@@ -3573,7 +3522,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>201</v>
       </c>
@@ -3584,7 +3533,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>202</v>
       </c>
@@ -3595,7 +3544,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>203</v>
       </c>
@@ -3606,7 +3555,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>204</v>
       </c>
@@ -3614,7 +3563,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>205</v>
       </c>
@@ -3622,7 +3571,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>206</v>
       </c>
@@ -3633,7 +3582,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>207</v>
       </c>
@@ -3644,7 +3593,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>208</v>
       </c>
@@ -3655,7 +3604,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>209</v>
       </c>
@@ -3666,7 +3615,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>210</v>
       </c>
@@ -3677,7 +3626,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>211</v>
       </c>
@@ -3688,7 +3637,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>212</v>
       </c>
@@ -3696,7 +3645,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>213</v>
       </c>
@@ -3707,7 +3656,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>214</v>
       </c>
@@ -3718,7 +3667,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>215</v>
       </c>
@@ -3729,7 +3678,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>216</v>
       </c>
@@ -3740,7 +3689,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>217</v>
       </c>
@@ -3751,7 +3700,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>218</v>
       </c>
@@ -3759,7 +3708,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>219</v>
       </c>
@@ -3770,7 +3719,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>220</v>
       </c>
@@ -3781,7 +3730,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>221</v>
       </c>
@@ -3792,7 +3741,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>222</v>
       </c>
@@ -3803,7 +3752,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>223</v>
       </c>
@@ -3814,7 +3763,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>224</v>
       </c>
@@ -3825,7 +3774,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>225</v>
       </c>
@@ -3836,7 +3785,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>226</v>
       </c>
@@ -3847,7 +3796,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>227</v>
       </c>
@@ -3858,7 +3807,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>228</v>
       </c>
@@ -3866,7 +3815,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>229</v>
       </c>
@@ -3877,7 +3826,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>230</v>
       </c>
@@ -3888,7 +3837,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>231</v>
       </c>
@@ -3899,7 +3848,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>232</v>
       </c>
@@ -3910,7 +3859,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>233</v>
       </c>
@@ -3921,7 +3870,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>234</v>
       </c>
@@ -3929,7 +3878,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>235</v>
       </c>
@@ -3940,7 +3889,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>236</v>
       </c>
@@ -3951,7 +3900,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>237</v>
       </c>
@@ -3962,7 +3911,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>238</v>
       </c>
@@ -3973,7 +3922,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>239</v>
       </c>
@@ -3984,7 +3933,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>240</v>
       </c>
@@ -3995,7 +3944,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>241</v>
       </c>
@@ -4006,7 +3955,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>242</v>
       </c>
@@ -4017,7 +3966,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>243</v>
       </c>
@@ -4028,7 +3977,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>244</v>
       </c>
@@ -4039,7 +3988,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>245</v>
       </c>
@@ -4050,7 +3999,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>246</v>
       </c>
@@ -4061,7 +4010,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>247</v>
       </c>
@@ -4072,7 +4021,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="248" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>248</v>
       </c>
@@ -4083,7 +4032,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="249" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>249</v>
       </c>
@@ -4094,7 +4043,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="250" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>250</v>
       </c>
@@ -4105,7 +4054,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="251" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>251</v>
       </c>
@@ -4113,7 +4062,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="252" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>252</v>
       </c>
@@ -4124,7 +4073,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="253" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>253</v>
       </c>
@@ -4135,7 +4084,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="254" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>254</v>
       </c>
@@ -4146,7 +4095,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="255" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>255</v>
       </c>
@@ -4157,7 +4106,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="256" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>256</v>
       </c>
@@ -4168,7 +4117,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="257" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>257</v>
       </c>
@@ -4179,7 +4128,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="258" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>258</v>
       </c>
@@ -4190,7 +4139,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="259" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>259</v>
       </c>
@@ -4201,7 +4150,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="260" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>260</v>
       </c>
@@ -4212,7 +4161,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="261" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>261</v>
       </c>
@@ -4223,7 +4172,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="262" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>262</v>
       </c>
@@ -4234,7 +4183,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="263" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>263</v>
       </c>
@@ -4245,7 +4194,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="264" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>264</v>
       </c>
@@ -4256,7 +4205,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="265" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>265</v>
       </c>
@@ -4267,7 +4216,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="266" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>266</v>
       </c>
@@ -4278,7 +4227,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="267" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>267</v>
       </c>
@@ -4289,7 +4238,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="268" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>268</v>
       </c>
@@ -4300,7 +4249,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="269" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>269</v>
       </c>
@@ -4311,7 +4260,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="270" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>270</v>
       </c>
@@ -4322,7 +4271,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="271" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>271</v>
       </c>
@@ -4333,7 +4282,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="272" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>272</v>
       </c>
@@ -4344,7 +4293,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="273" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>273</v>
       </c>
@@ -4355,7 +4304,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="274" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>274</v>
       </c>
@@ -4366,7 +4315,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="275" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>275</v>
       </c>
@@ -4377,7 +4326,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="276" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>276</v>
       </c>
@@ -4388,7 +4337,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="277" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>277</v>
       </c>
@@ -4399,7 +4348,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="278" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>278</v>
       </c>
@@ -4410,7 +4359,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="279" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>279</v>
       </c>
@@ -4421,7 +4370,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="280" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>280</v>
       </c>
@@ -4432,7 +4381,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="281" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>281</v>
       </c>
@@ -4443,7 +4392,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="282" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>282</v>
       </c>
@@ -4451,7 +4400,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="283" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>283</v>
       </c>
@@ -4462,7 +4411,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="284" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>284</v>
       </c>
@@ -4473,7 +4422,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="285" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>285</v>
       </c>
@@ -4484,7 +4433,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="286" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>286</v>
       </c>
@@ -4495,7 +4444,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="287" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>287</v>
       </c>
@@ -4506,7 +4455,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="288" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>288</v>
       </c>
@@ -4517,7 +4466,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="289" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>289</v>
       </c>
@@ -4528,7 +4477,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="290" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>290</v>
       </c>
@@ -4539,7 +4488,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="291" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>291</v>
       </c>
@@ -4550,6 +4499,5 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>